--- a/Data/aearep-1787/candidatepackages.xlsx
+++ b/Data/aearep-1787/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,33 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
-    <t>ranktest</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>binscatter</t>
   </si>
   <si>
-    <t>xtivreg2</t>
-  </si>
-  <si>
-    <t>parmest</t>
-  </si>
-  <si>
     <t>sencode</t>
   </si>
   <si>
@@ -61,24 +43,12 @@
     <t>vincenty</t>
   </si>
   <si>
-    <t>nnmatch</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>eclplot</t>
   </si>
   <si>
     <t>keeporder</t>
   </si>
   <si>
-    <t>acreg</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -88,33 +58,21 @@
     <t>index</t>
   </si>
   <si>
+    <t>delta</t>
+  </si>
+  <si>
     <t>digdis</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>next</t>
+    <t>unemp</t>
   </si>
   <si>
     <t>benford</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -133,31 +91,16 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1787</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1787/130804/#Replication</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1787/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t># H2H Replication Do-File.do</t>
   </si>
   <si>
     <t># H2H Replication Do-File_copy.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -201,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -209,13 +152,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -235,7 +178,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -247,7 +190,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -259,7 +202,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -271,7 +214,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -283,7 +226,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -295,7 +238,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -307,7 +250,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -319,7 +262,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -331,10 +274,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>448</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.14809916913509369</v>
       </c>
       <c r="D11"/>
     </row>
@@ -343,10 +286,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>499</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D12"/>
     </row>
@@ -355,10 +298,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>174</v>
+        <v>706</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D13"/>
     </row>
@@ -367,10 +310,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>196</v>
+        <v>998</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D14"/>
     </row>
@@ -379,10 +322,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>209</v>
+        <v>1125</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D15"/>
     </row>
@@ -391,10 +334,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>230</v>
+        <v>1290</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.42644628882408142</v>
       </c>
       <c r="D16"/>
     </row>
@@ -403,10 +346,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>1414</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D17"/>
     </row>
@@ -415,10 +358,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>279</v>
+        <v>1838</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D18"/>
     </row>
@@ -427,10 +370,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>312</v>
+        <v>1842</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.60892564058303833</v>
       </c>
       <c r="D19"/>
     </row>
@@ -439,10 +382,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>469</v>
+        <v>2436</v>
       </c>
       <c r="C20">
-        <v>0.15550397336483002</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D20"/>
     </row>
@@ -451,180 +394,12 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>528</v>
+        <v>2785</v>
       </c>
       <c r="C21">
-        <v>0.17506630718708038</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>565</v>
-      </c>
-      <c r="C22">
-        <v>0.18733422458171844</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>694</v>
-      </c>
-      <c r="C23">
-        <v>0.23010610044002533</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>985</v>
-      </c>
-      <c r="C24">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1096</v>
-      </c>
-      <c r="C25">
-        <v>0.36339521408081055</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1124</v>
-      </c>
-      <c r="C26">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1194</v>
-      </c>
-      <c r="C27">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1423</v>
-      </c>
-      <c r="C28">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1798</v>
-      </c>
-      <c r="C29">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1811</v>
-      </c>
-      <c r="C30">
-        <v>0.60046416521072388</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1817</v>
-      </c>
-      <c r="C31">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1859</v>
-      </c>
-      <c r="C32">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2000</v>
-      </c>
-      <c r="C33">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2424</v>
-      </c>
-      <c r="C34">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2714</v>
-      </c>
-      <c r="C35">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D35"/>
     </row>
   </sheetData>
 </worksheet>
@@ -632,55 +407,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
